--- a/BalanceSheet/PSA_bal.xlsx
+++ b/BalanceSheet/PSA_bal.xlsx
@@ -4038,7 +4038,7 @@
         <v>1721000000.0</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1492000000.0</v>
+        <v>1494750000.0</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>1351078000.0</v>
@@ -4165,7 +4165,7 @@
         <v>2439000000.0</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>1902000000.0</v>
+        <v>1904493000.0</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1892435000.0</v>
